--- a/docs/mcode-r4/vital-VitalSign.xlsx
+++ b/docs/mcode-r4/vital-VitalSign.xlsx
@@ -351,14 +351,14 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>precondition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/vital-Precondition-extension}
+    <t>preconditioncode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/vital-PreconditionCode-extension}
 </t>
   </si>
   <si>
-    <t>A description of the conditions or context of an observation, for example, under sedation, fasting or post-exercise. A qualifier cannot modify the measurement type; for example, a fasting blood sugar is still a blood sugar.</t>
+    <t>A coded description of the conditions or context of an observation, for example, under sedation, fasting or post-exercise. A qualifier cannot modify the measurement type; for example, a fasting blood sugar is still a blood sugar.</t>
   </si>
   <si>
     <t>Observation.modifierExtension</t>
@@ -1710,7 +1710,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="54.46484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="15.734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
